--- a/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssza_vorlage.xlsx
+++ b/java/bundles/org.eclipse.set.feature/rootdir/data/export/excel/ssza_vorlage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\SBIDER-2023-12\eclipse\data\export\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ws-intern\PlanPro-Git\eclipse-set\java\bundles\org.eclipse.set.feature\rootdir\data\export\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F068F295-EB19-4D33-AB76-15E00E04EBAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6F97ED-E87A-4241-A2CF-CD5E4062C2E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,10 +618,40 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -638,36 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1056,95 +1056,95 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="N3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="51"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="46"/>
       <c r="H4" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
@@ -2146,6 +2146,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O4"/>
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2162,9 +2163,8 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:O4"/>
   </mergeCells>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.19685039370078741" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>